--- a/Base/Teams/Texans/QBs Target Depth Data.xlsx
+++ b/Base/Teams/Texans/QBs Target Depth Data.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="T.Taylor" sheetId="1" r:id="rId1"/>
-    <sheet name="D.Mills" sheetId="2" r:id="rId2"/>
+    <sheet name="D.Mills" sheetId="1" r:id="rId1"/>
+    <sheet name="T.Taylor" sheetId="2" r:id="rId2"/>
     <sheet name="D.Watson" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
